--- a/data/gihun/dataset/대구시출산율모델.xlsx
+++ b/data/gihun/dataset/대구시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.396163469557965</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1199</v>
       </c>
       <c r="F81" t="n">
         <v>74.608</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003539325165837483</v>
+      </c>
       <c r="H81" t="n">
         <v>53.2</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.5849256900212314</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>942</v>
       </c>
       <c r="F82" t="n">
         <v>74.755</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003514611129275498</v>
+      </c>
       <c r="H82" t="n">
         <v>53.6</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4142614601018676</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1178</v>
       </c>
       <c r="F83" t="n">
         <v>75.19799999999999</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003489897092713513</v>
+      </c>
       <c r="H83" t="n">
         <v>53.9</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.4347826086956522</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1012</v>
       </c>
       <c r="F84" t="n">
         <v>75.34699999999999</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003465183056151527</v>
+      </c>
       <c r="H84" t="n">
         <v>54.2</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.36</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>1300</v>
       </c>
       <c r="F85" t="n">
         <v>75.419</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003440469019589542</v>
+      </c>
       <c r="H85" t="n">
         <v>54.2</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3720930232558139</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1204</v>
       </c>
       <c r="F86" t="n">
         <v>75.27200000000001</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003415754983027557</v>
+      </c>
       <c r="H86" t="n">
         <v>54.1</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.5177142857142857</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>875</v>
       </c>
       <c r="F87" t="n">
         <v>75.56699999999999</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003391040946465572</v>
+      </c>
       <c r="H87" t="n">
         <v>53.9</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.4911131898971001</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>1069</v>
       </c>
       <c r="F88" t="n">
         <v>76.157</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003366326909903587</v>
+      </c>
       <c r="H88" t="n">
         <v>53.6</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.4616402116402116</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>756</v>
       </c>
       <c r="F89" t="n">
         <v>76.30500000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003341612873341602</v>
+      </c>
       <c r="H89" t="n">
         <v>53.7</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.420824295010846</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>922</v>
       </c>
       <c r="F90" t="n">
         <v>75.86199999999999</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003316898836779616</v>
+      </c>
       <c r="H90" t="n">
         <v>53.8</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3271349862258953</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>1452</v>
       </c>
       <c r="F91" t="n">
         <v>75.494</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003292184800217631</v>
+      </c>
       <c r="H91" t="n">
         <v>54</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.2168431669188099</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1983</v>
       </c>
       <c r="F92" t="n">
         <v>75.789</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003267470763655646</v>
+      </c>
       <c r="H92" t="n">
         <v>54.1</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3193052772211089</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1497</v>
       </c>
       <c r="F93" t="n">
         <v>75.86199999999999</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003242756727093661</v>
+      </c>
       <c r="H93" t="n">
         <v>54.2</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.2987897125567322</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.541666666666666</v>
+      </c>
       <c r="E94" t="n">
         <v>1322</v>
       </c>
       <c r="F94" t="n">
         <v>76.379</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003220113538191843</v>
+      </c>
       <c r="H94" t="n">
         <v>54.1</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3722084367245658</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.483333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>1209</v>
       </c>
       <c r="F95" t="n">
         <v>76.821</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003197470349290025</v>
+      </c>
       <c r="H95" t="n">
         <v>53.9</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.4409221902017291</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E96" t="n">
         <v>1041</v>
       </c>
       <c r="F96" t="n">
         <v>77.04300000000001</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003174827160388207</v>
+      </c>
       <c r="H96" t="n">
         <v>53.6</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.306047197640118</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9.366666666666667</v>
+      </c>
       <c r="E97" t="n">
         <v>1356</v>
       </c>
       <c r="F97" t="n">
         <v>77.117</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003152183971486389</v>
+      </c>
       <c r="H97" t="n">
         <v>53.4</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3614457831325301</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>9.308333333333334</v>
+      </c>
       <c r="E98" t="n">
         <v>1162</v>
       </c>
       <c r="F98" t="n">
         <v>77.04300000000001</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003129540782584571</v>
+      </c>
       <c r="H98" t="n">
         <v>52.9</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4435401831129197</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>9.25</v>
+      </c>
       <c r="E99" t="n">
         <v>983</v>
       </c>
       <c r="F99" t="n">
         <v>77.33799999999999</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003106897593682753</v>
+      </c>
       <c r="H99" t="n">
         <v>52.6</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4219446922390723</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>9.191666666666666</v>
+      </c>
       <c r="E100" t="n">
         <v>1121</v>
       </c>
       <c r="F100" t="n">
         <v>77.486</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003084254404780936</v>
+      </c>
       <c r="H100" t="n">
         <v>52.4</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5131195335276968</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>9.133333333333333</v>
+      </c>
       <c r="E101" t="n">
         <v>686</v>
       </c>
       <c r="F101" t="n">
         <v>77.928</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003061611215879118</v>
+      </c>
       <c r="H101" t="n">
         <v>52.4</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3806287170773152</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>9.074999999999999</v>
+      </c>
       <c r="E102" t="n">
         <v>1177</v>
       </c>
       <c r="F102" t="n">
         <v>78.003</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.0030389680269773</v>
+      </c>
       <c r="H102" t="n">
         <v>52.6</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3917220990391722</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>9.016666666666667</v>
+      </c>
       <c r="E103" t="n">
         <v>1353</v>
       </c>
       <c r="F103" t="n">
         <v>77.928</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003016324838075482</v>
+      </c>
       <c r="H103" t="n">
         <v>52.6</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2711670480549199</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>8.958333333333334</v>
+      </c>
       <c r="E104" t="n">
         <v>1748</v>
       </c>
       <c r="F104" t="n">
         <v>78.224</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.002993681649173664</v>
+      </c>
       <c r="H104" t="n">
         <v>52.6</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.9</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H273" t="n">
         <v>100.6</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.59</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H274" t="n">
         <v>100.2</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.34</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H275" t="n">
         <v>99.59999999999999</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.08</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H276" t="n">
         <v>98.7</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.82</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H277" t="n">
         <v>97.8</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.33</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H278" t="n">
         <v>96.8</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.06</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H279" t="n">
         <v>96</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.98</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H280" t="n">
         <v>95.09999999999999</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>109.41</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H281" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.61</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H282" t="n">
         <v>92.3</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.51</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H283" t="n">
         <v>89.90000000000001</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.61</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H284" t="n">
         <v>85.8</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.45</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001314191541978348</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
